--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,27 +634,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/artfynd/A 55351-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/artfynd/A 55351-2022.xlsx", "A 55351-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/kartor/A 55351-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/kartor/A 55351-2022.png", "A 55351-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomål/A 55351-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomål/A 55351-2022.docx", "A 55351-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomålsmail/A 55351-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomålsmail/A 55351-2022.docx", "A 55351-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsyn/A 55351-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsyn/A 55351-2022.docx", "A 55351-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsynsmail/A 55351-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsynsmail/A 55351-2022.docx", "A 55351-2022")</f>
         <v/>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,27 +720,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/artfynd/A 24713-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/artfynd/A 24713-2019.xlsx", "A 24713-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/kartor/A 24713-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/kartor/A 24713-2019.png", "A 24713-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomål/A 24713-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomål/A 24713-2019.docx", "A 24713-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomålsmail/A 24713-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomålsmail/A 24713-2019.docx", "A 24713-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsyn/A 24713-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsyn/A 24713-2019.docx", "A 24713-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsynsmail/A 24713-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsynsmail/A 24713-2019.docx", "A 24713-2019")</f>
         <v/>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -806,27 +806,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/artfynd/A 22268-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/artfynd/A 22268-2022.xlsx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/kartor/A 22268-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/kartor/A 22268-2022.png", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomål/A 22268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomål/A 22268-2022.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomålsmail/A 22268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomålsmail/A 22268-2022.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsyn/A 22268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsyn/A 22268-2022.docx", "A 22268-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsynsmail/A 22268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsynsmail/A 22268-2022.docx", "A 22268-2022")</f>
         <v/>
       </c>
     </row>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,31 +891,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/artfynd/A 40799-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/artfynd/A 40799-2020.xlsx", "A 40799-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/kartor/A 40799-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/kartor/A 40799-2020.png", "A 40799-2020")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/knärot/A 40799-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/knärot/A 40799-2020.png", "A 40799-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomål/A 40799-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomål/A 40799-2020.docx", "A 40799-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomålsmail/A 40799-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomålsmail/A 40799-2020.docx", "A 40799-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsyn/A 40799-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsyn/A 40799-2020.docx", "A 40799-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsynsmail/A 40799-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsynsmail/A 40799-2020.docx", "A 40799-2020")</f>
         <v/>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,27 +980,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/artfynd/A 56911-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/artfynd/A 56911-2022.xlsx", "A 56911-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/kartor/A 56911-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/kartor/A 56911-2022.png", "A 56911-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomål/A 56911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomål/A 56911-2022.docx", "A 56911-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomålsmail/A 56911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/klagomålsmail/A 56911-2022.docx", "A 56911-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsyn/A 56911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsyn/A 56911-2022.docx", "A 56911-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsynsmail/A 56911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LERUM/tillsynsmail/A 56911-2022.docx", "A 56911-2022")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>

--- a/Översikt LERUM.xlsx
+++ b/Översikt LERUM.xlsx
@@ -572,7 +572,7 @@
         <v>44882</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44712</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>44070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44894</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43362</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>43391</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>43391</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43416</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43419</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43437</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43453</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43463</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43487</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43528</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43567</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43630</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43696</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43696</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43732</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43767</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>43833</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43833</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>43845</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>43845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>43845</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>43845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>43845</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>43857</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>43949</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>43964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44004</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>44120</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>44127</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44131</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>44153</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>44153</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>44153</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44153</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44153</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44153</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44153</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44153</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44153</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44153</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44309</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44467</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44487</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44517</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44532</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44532</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44540</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44540</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>44610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44658</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44710</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44712</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44712</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44712</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>44713</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>44721</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44735</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44746</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44746</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>44746</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44790</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44895</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44895</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44931</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44943</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44943</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44943</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44943</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44959</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44985</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44985</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45028</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45057</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45092</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45145</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
